--- a/data/trans_camb/P32B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.235580909216367</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.08030131433844</v>
+        <v>3.080301314338439</v>
       </c>
     </row>
     <row r="5">
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9112119286655979</v>
+        <v>-0.4856337896409462</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7240223187327162</v>
+        <v>-0.565923775891476</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.091796063872859</v>
+        <v>1.165312571389263</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -693,13 +693,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.5190939886336619</v>
+        <v>-0.3110596885016333</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2154537282942197</v>
+        <v>-0.1851678304176796</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.100562975999547</v>
+        <v>1.10867969116233</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.308117108630029</v>
+        <v>3.534834672734782</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.81769182628324</v>
+        <v>3.816879077510113</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.281660347212203</v>
+        <v>6.820526323223694</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.299601987336082</v>
+        <v>2.138974022672306</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.12809020022932</v>
+        <v>4.154772136609576</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.066458464297481</v>
+        <v>4.696639347683637</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.274021962695254</v>
+        <v>2.595352437778903</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.144944784618338</v>
+        <v>3.106510203132299</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.814857948639329</v>
+        <v>5.806910210122348</v>
       </c>
     </row>
     <row r="7">
@@ -775,7 +775,7 @@
         <v>1.212822979302093</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>3.023565829916768</v>
+        <v>3.023565829916767</v>
       </c>
     </row>
     <row r="8">
@@ -786,25 +786,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5436302083746322</v>
+        <v>-0.3951519852719929</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4429822558827376</v>
+        <v>-0.489577277520812</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2974498691599803</v>
+        <v>0.1649447800013048</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.4145633510876682</v>
+        <v>-0.3523114451558302</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3068968932055997</v>
+        <v>-0.2930383930683758</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4697097360496694</v>
+        <v>0.5148417511662116</v>
       </c>
     </row>
     <row r="9">
@@ -815,25 +815,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.444263260718829</v>
+        <v>5.343324908227181</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.416531156724558</v>
+        <v>5.415480247216256</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>9.574212129932921</v>
+        <v>9.37423540886355</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>4.957252410861615</v>
+        <v>5.014252203305493</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>6.374571806428908</v>
+        <v>6.209458771592504</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>11.30740858915378</v>
+        <v>12.7688187725147</v>
       </c>
     </row>
     <row r="10">
@@ -854,7 +854,7 @@
         <v>1.242261789895482</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7352903770364921</v>
+        <v>0.7352903770364922</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.3180837487989401</v>
@@ -863,7 +863,7 @@
         <v>-0.2962597096480791</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.7089481089536241</v>
+        <v>0.7089481089536245</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.456529417359437</v>
@@ -872,7 +872,7 @@
         <v>0.699426109321038</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.7350151135791396</v>
+        <v>0.7350151135791393</v>
       </c>
     </row>
     <row r="11">
@@ -883,31 +883,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.322785430547543</v>
+        <v>1.338718793633902</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3209451062292019</v>
+        <v>0.3380709770959926</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.219858320214949</v>
+        <v>-0.1664404294548449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.820163167691096</v>
+        <v>-1.65636544324116</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.788339966893373</v>
+        <v>-1.6316484775811</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.9264791202641854</v>
+        <v>-0.8038015282345542</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6510436549076655</v>
+        <v>0.6088544952114173</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005828532651015879</v>
+        <v>0.01011342148064126</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.06541422468901933</v>
+        <v>0.003037452915457714</v>
       </c>
     </row>
     <row r="12">
@@ -918,31 +918,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.563661045634772</v>
+        <v>3.456879068187928</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.218458416956443</v>
+        <v>2.160096418677564</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.821348460362394</v>
+        <v>1.84599130389343</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8613348142836023</v>
+        <v>0.9981621267623854</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8446975123199252</v>
+        <v>0.8656865483463354</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.545998843458137</v>
+        <v>2.830998945178292</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.363639143910591</v>
+        <v>2.2465394332069</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.476301454003405</v>
+        <v>1.453766696946551</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.778724473091904</v>
+        <v>1.807677636394413</v>
       </c>
     </row>
     <row r="13">
@@ -968,7 +968,7 @@
         <v>-0.2167507905369656</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5186836348686106</v>
+        <v>0.5186836348686109</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1.581540895670259</v>
@@ -977,7 +977,7 @@
         <v>0.7594566798356551</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.7981002286713603</v>
+        <v>0.79810022867136</v>
       </c>
     </row>
     <row r="14">
@@ -988,31 +988,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1.08419406388612</v>
+        <v>0.985847986276051</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1894362091663021</v>
+        <v>0.1621147386111793</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3567298155918733</v>
+        <v>-0.2499952573632627</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.836285709700493</v>
+        <v>-0.7961845882966417</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7808130767236781</v>
+        <v>-0.780393803069847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.563129216411256</v>
+        <v>-0.4866003219458017</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4459302291793078</v>
+        <v>0.375837921286599</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.009984383713647429</v>
+        <v>-0.06182512659078455</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.08056243263945841</v>
+        <v>-0.07544074091163978</v>
       </c>
     </row>
     <row r="15">
@@ -1023,31 +1023,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9.581654608330224</v>
+        <v>9.478082463790141</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6.049941649254274</v>
+        <v>5.25976256308477</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4.577639915303475</v>
+        <v>4.644562312787724</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.644189373025289</v>
+        <v>1.802617898425735</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.498687667092675</v>
+        <v>1.568686379409598</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.569017768705979</v>
+        <v>4.709817424162992</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.777485700790125</v>
+        <v>3.615762004070734</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.468936299952859</v>
+        <v>2.419530145851228</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.900287821777418</v>
+        <v>2.691860738242202</v>
       </c>
     </row>
     <row r="16">
@@ -1097,31 +1097,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5019670019693128</v>
+        <v>0.5387466535647844</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1086555045328568</v>
+        <v>0.1099706665563064</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3303306257708936</v>
+        <v>0.3147153481869786</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.693174230412609</v>
+        <v>-3.362104794413609</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.133149840653007</v>
+        <v>-2.06306504263451</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.529441847491032</v>
+        <v>-1.445924287167912</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.3510295316492373</v>
+        <v>-0.186435777502113</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2904576849051372</v>
+        <v>-0.2857653163029816</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2079771003825575</v>
+        <v>0.1806171210528248</v>
       </c>
     </row>
     <row r="18">
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.078318971619174</v>
+        <v>4.825840254145938</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.798893207860399</v>
+        <v>3.689548284223712</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.741865171396648</v>
+        <v>3.873242521383386</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.441212329713246</v>
+        <v>1.641668887549155</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.382123840333379</v>
+        <v>2.401204812813252</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.531162220283083</v>
+        <v>2.713552979718172</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.204369343696201</v>
+        <v>2.16033211618039</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.655443162477057</v>
+        <v>2.744519126901536</v>
       </c>
     </row>
     <row r="19">
@@ -1173,7 +1173,7 @@
         <v>3.976680272310536</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4.626040886553317</v>
+        <v>4.626040886553318</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-1</v>
@@ -1207,16 +1207,16 @@
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.7443850920497491</v>
+        <v>-0.7527352752479841</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6170734859710306</v>
+        <v>-0.5593370065385584</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5137979706164814</v>
+        <v>-0.5166215389425418</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1715648821164959</v>
+        <v>-0.2447896649265608</v>
       </c>
     </row>
     <row r="21">
@@ -1233,13 +1233,13 @@
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>9.821227286950458</v>
+        <v>10.762817526169</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>11.06797464352897</v>
+        <v>10.56817349010842</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>14.44776011431422</v>
+        <v>12.44101903712066</v>
       </c>
     </row>
     <row r="22">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.25174836075772</v>
+        <v>1.177038114706926</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5840241662028299</v>
+        <v>0.5430585040901206</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4808500822476883</v>
+        <v>0.5955313075938913</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.244898551999104</v>
+        <v>-1.22567460808155</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.9712156852591608</v>
+        <v>-0.9210988565087714</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.2671336628731567</v>
+        <v>-0.255447089091621</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5582313001222493</v>
+        <v>0.6157894175748269</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2146619806260869</v>
+        <v>0.2341934094921214</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5144265704628881</v>
+        <v>0.5658562368876845</v>
       </c>
     </row>
     <row r="24">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.038737967550542</v>
+        <v>2.996806180693154</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.181072757429831</v>
+        <v>2.141375626688043</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.285121178640195</v>
+        <v>2.265362229818052</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4117055861207077</v>
+        <v>0.53414699963245</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8205164853370488</v>
+        <v>0.8186983207794707</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.269471195183249</v>
+        <v>2.109032511465218</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.850354653236051</v>
+        <v>1.92690388351993</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.454660071747963</v>
+        <v>1.478661003400613</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.958726474456891</v>
+        <v>2.064624094151553</v>
       </c>
     </row>
     <row r="25">
@@ -1394,31 +1394,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.9908387178237579</v>
+        <v>0.8794145440661654</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4075102335946136</v>
+        <v>0.341120326211739</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3741383565503081</v>
+        <v>0.4613315485288954</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7959958907380382</v>
+        <v>-0.7509465891655132</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6384070865849492</v>
+        <v>-0.6213828492966835</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2448943692069338</v>
+        <v>-0.2262745525987196</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4403792818218456</v>
+        <v>0.4477454193942081</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1372829830908922</v>
+        <v>0.1831660199131312</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4057894287257353</v>
+        <v>0.4360243461133304</v>
       </c>
     </row>
     <row r="27">
@@ -1429,31 +1429,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.940079402271471</v>
+        <v>5.453640539972813</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.976015144766742</v>
+        <v>3.794271244965342</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4.03216395264114</v>
+        <v>4.031938749129657</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7785933244048925</v>
+        <v>1.560742880925895</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.39741821915877</v>
+        <v>1.422057859285362</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.597673547951725</v>
+        <v>3.416573568166821</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.970761884210333</v>
+        <v>2.895075141784341</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.193795964777864</v>
+        <v>2.289714120764101</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.845226611515107</v>
+        <v>3.092710391241487</v>
       </c>
     </row>
     <row r="28">
